--- a/medicine/Handicap/Una_escuela_en_Cerro_Hueso/Una_escuela_en_Cerro_Hueso.xlsx
+++ b/medicine/Handicap/Una_escuela_en_Cerro_Hueso/Una_escuela_en_Cerro_Hueso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Una escuela en Cerro Hueso est un film dramatique argentin de Betania Cappato sorti en 2021[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Una escuela en Cerro Hueso est un film dramatique argentin de Betania Cappato sorti en 2021.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ema, six ans, reçoit un diagnostic d'autisme et s'inscrit dans une nouvelle école.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Una escuela en Cerro Hueso
 Titre en anglais : A School in Cerro Hueso
@@ -585,7 +601,9 @@
           <t>Distribution[2]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mara Bestelli : Julia
 Pablo Seijo : Antonio
@@ -622,7 +640,9 @@
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film se fonde sur l'histoire familiale de la réalisatrice Betania Cappato.
 </t>
@@ -655,11 +675,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Récompenses
-2021 : Mention spéciale Generation Kplus à la Berlinale[3]
-2022 : Meilleur long métrage au Blue Danube Film Festival[4]
-Nomination
-2021 : Meilleur film au Festival international du film de Pékin</t>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2021 : Mention spéciale Generation Kplus à la Berlinale
+2022 : Meilleur long métrage au Blue Danube Film Festival</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Una_escuela_en_Cerro_Hueso</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Una_escuela_en_Cerro_Hueso</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2021 : Meilleur film au Festival international du film de Pékin</t>
         </is>
       </c>
     </row>
